--- a/NLP Timeline.xlsx
+++ b/NLP Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozcan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7915BB2-B8E0-463F-A1DE-B7C7AC080E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B691D-77E0-42A4-909B-9B4DC7C4A9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2220" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detay" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
   <si>
     <t>Algorithm</t>
   </si>
@@ -362,6 +362,105 @@
   </si>
   <si>
     <t>DistilBERT</t>
+  </si>
+  <si>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>RoBERTa</t>
+  </si>
+  <si>
+    <t>CamemBERT</t>
+  </si>
+  <si>
+    <t>ALBERT</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>Abstractive Text Summarization Using Sequence-to-Sequence RNNs and Beyond</t>
+  </si>
+  <si>
+    <t>Deep Recurrent Generative Decoder for Abstractive Text Summarization</t>
+  </si>
+  <si>
+    <t>Generative Adversarial Network for Abstractive Text Summarization</t>
+  </si>
+  <si>
+    <t>Text Summarization with Pretrained Encoders</t>
+  </si>
+  <si>
+    <t>A Deep Reinforced Model for Abstractive Summarization</t>
+  </si>
+  <si>
+    <t>SummaRuNNer: A Recurrent Neural Network Based Sequence Model for Extractive Summarization of Documents</t>
+  </si>
+  <si>
+    <t>Unsupervised Text Summarization Using Sentence Embeddings</t>
+  </si>
+  <si>
+    <t>Fine-tune BERT for Extractive Summarization</t>
+  </si>
+  <si>
+    <t>CTRL: A Conditional Transformer Language Model for Controllable Generation</t>
+  </si>
+  <si>
+    <t>RoBERTa: A Robustly Optimized BERT Pretraining Approach</t>
+  </si>
+  <si>
+    <t>Cross-lingual Language Model Pretraining</t>
+  </si>
+  <si>
+    <t>ALBERT: A Lite BERT for Self-supervised Learning of Language Representations</t>
+  </si>
+  <si>
+    <t>CamemBERT: a Tasty French Language Model</t>
+  </si>
+  <si>
+    <t>Cross-Lingual Lemmatization and Morphology Tagging with Two-Stage Multilingual BERT Fine-Tuning</t>
+  </si>
+  <si>
+    <t>UDIfy</t>
+  </si>
+  <si>
+    <t>75 Languages, 1 Model: Parsing Universal Dependencies Universally</t>
+  </si>
+  <si>
+    <t>words-lvt5k-1sent</t>
+  </si>
+  <si>
+    <t>DRGD</t>
+  </si>
+  <si>
+    <t>ML+RL</t>
+  </si>
+  <si>
+    <t>SummaRuNNer</t>
+  </si>
+  <si>
+    <t>BERTSum</t>
+  </si>
+  <si>
+    <t>MultiLingual Language Model (all NLP Tasks)</t>
+  </si>
+  <si>
+    <t>Dependency Parser</t>
+  </si>
+  <si>
+    <t>POS, NER Tagging</t>
+  </si>
+  <si>
+    <t>Language Model (all BERT tasks)</t>
+  </si>
+  <si>
+    <t>French Language Model (all BERT tasks)</t>
+  </si>
+  <si>
+    <t>Multitask Learning</t>
+  </si>
+  <si>
+    <t>Language Model</t>
   </si>
 </sst>
 </file>
@@ -390,7 +489,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,14 +514,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -445,6 +538,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -461,12 +565,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00E159DE-995E-4ED6-B7C8-8BEB35C15EE7}" type="CELLRANGE">
+                    <a:fld id="{D7DCD7A4-DC7C-470E-BDBF-9B17845D91F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -555,7 +663,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{801ED42E-70FD-4BC0-AA85-7E82D5224B98}" type="XVALUE">
+                    <a:fld id="{4F72257F-6D42-4828-A26F-25F6655ED3E4}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -564,7 +672,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{92E1F89A-0717-4AE8-A955-7B6A3BFB7D8B}" type="YVALUE">
+                    <a:fld id="{0675ADEC-C409-452C-B175-A32597C4250D}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -598,7 +706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{621B8570-4D63-4D8D-A0BE-FADA1770701C}" type="CELLRANGE">
+                    <a:fld id="{AF88C1A2-0B34-48F6-9B92-82D98DBEB1C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -607,7 +715,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B3A6B5F1-621D-4524-AE29-3523A6FB4C38}" type="XVALUE">
+                    <a:fld id="{00571E7C-B346-403E-B00E-E853B9B8393C}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -616,7 +724,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F58DBFF6-C865-4213-96F1-2A6F14528AC4}" type="YVALUE">
+                    <a:fld id="{5EDD4329-D73A-44E5-813A-D44B1F2EAA06}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -650,7 +758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBA86D39-6137-4F55-8106-098819F3586F}" type="CELLRANGE">
+                    <a:fld id="{5388E911-7234-4B5E-92E5-107D75218C02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -659,7 +767,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{178447E1-B9CE-41E5-9442-CEDD34C2B3D7}" type="XVALUE">
+                    <a:fld id="{7A1CA3DB-F7EF-4BC1-8C5C-0547DCFE5564}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -668,7 +776,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{61AB3ADA-D0BF-45A3-8750-AE1BC3152756}" type="YVALUE">
+                    <a:fld id="{C9716B18-5C54-4878-8385-A7CBD377897A}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -702,7 +810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CC7FE8E-9054-4B91-9CF4-3BB3E2607E7A}" type="CELLRANGE">
+                    <a:fld id="{1147EE98-626D-41AD-9331-5970B0E4544C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -711,7 +819,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{AD7F9EBA-C8BD-44FF-9230-C3F42B6356E5}" type="XVALUE">
+                    <a:fld id="{6C1798A9-3EF2-4D6D-BAD7-6EF3392764EE}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -720,7 +828,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2B39974C-6678-43DB-9CB7-9310EB8886B9}" type="YVALUE">
+                    <a:fld id="{A7E338B6-6464-4343-B56F-637BEE76AAED}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -760,7 +868,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F698774-8CBC-4546-BC45-6DAE9A4C8D48}" type="CELLRANGE">
+                    <a:fld id="{71836225-258B-4B22-9D76-1C6554F5547B}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -769,7 +877,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FFD4D0BA-088C-4DE4-BE64-A16EB9493EBF}" type="XVALUE">
+                    <a:fld id="{627CDE5F-7618-46B6-8E45-6F611BEA7A9B}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -778,7 +886,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8FF624CA-48BE-45B8-B93B-0C989E4CB1C3}" type="YVALUE">
+                    <a:fld id="{C8C47E4A-D075-49F6-9C67-E70868090486}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -811,7 +919,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A8114FD-31EC-416A-855B-EDDFEBC4CBA3}" type="CELLRANGE">
+                    <a:fld id="{95012E16-77F5-4E93-93A9-32BB3A0BACF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -820,7 +928,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9C18E66D-08D9-4250-8205-1015CF6E3561}" type="XVALUE">
+                    <a:fld id="{7499A950-0153-4266-84FA-A2A42187DEA0}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -829,7 +937,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B56F7152-72C2-45FE-8485-DC9B55985B5C}" type="YVALUE">
+                    <a:fld id="{D190CC4B-D66F-436E-941C-F0A2CA719932}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -869,7 +977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FFED88E-22BE-4623-9C87-824EB3514C98}" type="CELLRANGE">
+                    <a:fld id="{1FE1DB66-0637-4219-8CE9-B3E8697EED46}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -878,7 +986,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4F46861E-4DC7-4F71-AFCA-46EA39610817}" type="XVALUE">
+                    <a:fld id="{75A49CC1-E648-4333-9273-AAC8E26816F9}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -887,7 +995,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0D94F8FF-AAC0-41FA-9EA0-8992EBCF793F}" type="YVALUE">
+                    <a:fld id="{DDF9DAAC-9EA4-41EF-B3A1-1A4DC41BA21C}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -920,7 +1028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB8E2B05-46D5-438D-A4EC-4AED0BBCD592}" type="CELLRANGE">
+                    <a:fld id="{C65A0943-1BBB-4A43-A672-7E1EE569C5BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -929,7 +1037,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{85F52B20-0328-4C33-8F17-CC92310D4421}" type="XVALUE">
+                    <a:fld id="{33A96E0D-211C-4C38-87FB-4897EAA2756A}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -938,7 +1046,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{74C9B82A-3B63-42B9-B69A-B11F7FA190AA}" type="YVALUE">
+                    <a:fld id="{4E2CFDB8-0F0C-4849-B039-D84023288CF6}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -978,7 +1086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{569E9052-DA12-4197-80C0-C99214E1BF83}" type="CELLRANGE">
+                    <a:fld id="{030872A1-A0B1-40B0-9E74-2777C255EBFF}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -987,7 +1095,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{269BCBA4-0821-4379-8AD0-A14987BAF56E}" type="XVALUE">
+                    <a:fld id="{60CB62ED-05F8-4129-91F6-B6FEFD8E60C6}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -996,7 +1104,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{EF98A889-05FC-4132-A7DE-4E26234F1141}" type="YVALUE">
+                    <a:fld id="{9FA482C4-7735-4F98-9F1E-80AAC0666A81}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1029,7 +1137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3B05B27-DFE9-41E6-8E00-2F1485482592}" type="CELLRANGE">
+                    <a:fld id="{B7992D9A-6ACB-457B-8CA2-E7B13BED1533}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1038,7 +1146,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4A13DC32-ABED-4958-95A3-1A9543472D52}" type="XVALUE">
+                    <a:fld id="{0F9C3D18-89AD-4B5C-A587-39AAD28FE0C6}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1047,7 +1155,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7A4543A7-F93E-4F61-9639-C3D76F90D4C5}" type="YVALUE">
+                    <a:fld id="{39B75708-88BF-40E0-B77D-DD05148CC854}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1081,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D094665-05E8-43AD-8A86-369392D83F68}" type="CELLRANGE">
+                    <a:fld id="{AD9CF673-2DA4-4B1E-953B-1CBAEAC2A07C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1090,7 +1198,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5F98D27C-65CA-4450-9F70-0E65F09FA6F0}" type="XVALUE">
+                    <a:fld id="{7D392E69-DC7F-4167-928A-E3C0F52D269A}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1099,7 +1207,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8847C0B4-5B5B-421D-8AE1-2106E81398A3}" type="YVALUE">
+                    <a:fld id="{1E3F890C-2B22-46C2-A7B7-824A080E09A5}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1133,7 +1241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CDAC4A4-229B-4487-9FEA-1E8F98B67EF4}" type="CELLRANGE">
+                    <a:fld id="{FB11D5C9-EF0E-43C0-81B2-561694CB12BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1142,7 +1250,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2F57CE75-772F-4C3E-ACA2-3E5CA5307D3A}" type="XVALUE">
+                    <a:fld id="{5AD50C01-FCB2-4FAB-8DA1-79694FDA3436}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1151,7 +1259,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{30A17C57-BCC4-4716-8826-E1CC9E7F3E81}" type="YVALUE">
+                    <a:fld id="{B0502A43-D635-4C32-9E11-361548A70E66}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1185,7 +1293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E59C1668-48BD-4BEC-8F71-73F06323C89D}" type="CELLRANGE">
+                    <a:fld id="{B9C287DE-5448-4F28-A5CE-D3287F1857E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1194,7 +1302,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BF3BFF7D-07A7-45C1-AF90-816F7DD54CE0}" type="XVALUE">
+                    <a:fld id="{4F467BC5-93A8-4C83-AC25-1B7D08380EF0}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1203,7 +1311,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{82DFE3F9-B370-46A7-9A1C-3F46AE2C1433}" type="YVALUE">
+                    <a:fld id="{7C0B76EA-C294-40FE-A869-4E2D2B21316E}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1243,7 +1351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13B98180-40CB-41F9-BF04-A8DD7F6B27C1}" type="CELLRANGE">
+                    <a:fld id="{27C5CD35-76C6-4081-AACF-47A013A22F75}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1252,7 +1360,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BC8C8630-2FE7-4B6C-9D29-C2CD0EA0300F}" type="XVALUE">
+                    <a:fld id="{C78BD33F-9DAB-4267-8A93-1F6547432020}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1261,7 +1369,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{45F3DA9D-67A5-4F78-8183-0A361F41A4E8}" type="YVALUE">
+                    <a:fld id="{BE1F1B35-1ACF-47A2-9F4F-868805C55CF6}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1300,7 +1408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41F43F3D-9362-49A6-A3DC-BB17368FE95D}" type="CELLRANGE">
+                    <a:fld id="{566858C6-2C95-471A-8AD6-94215E035960}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1309,7 +1417,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5D4E1412-0D53-43D5-9C8C-44AE7DB96BA9}" type="XVALUE">
+                    <a:fld id="{4EF5D53D-108C-4C2F-8B6B-FA5FE81106FD}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1318,7 +1426,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{DD70FEF0-F0E2-4EE8-A998-FED4412BD3BD}" type="YVALUE">
+                    <a:fld id="{47B4B630-574D-4434-8EC9-9EF332539BE7}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1361,7 +1469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EC2DAD5-95EE-4196-ABFF-58D2EC60CF14}" type="CELLRANGE">
+                    <a:fld id="{D1E26389-F646-48BC-AAA1-F6D58CEAB5D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1370,7 +1478,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CC9E481F-9B1F-4F7A-A0B3-53075B5409A6}" type="XVALUE">
+                    <a:fld id="{D2B4D8DE-BD63-4906-B258-4BD9821CB754}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1379,7 +1487,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4873801B-8235-40C8-BDC5-D5D215509EE0}" type="YVALUE">
+                    <a:fld id="{F9861AB6-C370-4C0D-BA3F-395A0F343CAD}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1413,7 +1521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A1F0869-9B02-4E3A-A9CB-8938D75A221F}" type="CELLRANGE">
+                    <a:fld id="{EF041175-D524-4066-A1BD-C2EA58D9CA62}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1422,7 +1530,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CAB09184-0D26-4054-BD57-1D9F465CD137}" type="XVALUE">
+                    <a:fld id="{A3DF3C84-AE88-4660-A3B3-EBD8F17E6E1E}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1431,7 +1539,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8902A6D7-374B-4F6B-8757-6FDDF0419865}" type="YVALUE">
+                    <a:fld id="{D9B61F9A-A2A5-47D7-A2E8-906D6703CA53}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1465,7 +1573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CD9FA93-A754-4A76-A589-7AD5294C49FF}" type="CELLRANGE">
+                    <a:fld id="{15288BBE-D360-4F01-BF7B-78037D2BDA8B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1474,7 +1582,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C4FFA9F1-8567-4B74-BD53-FB40EA3C2079}" type="XVALUE">
+                    <a:fld id="{95881155-91D7-4C70-AC03-F2BC90C1F4A4}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1483,7 +1591,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{487F0577-50CE-423C-9D3F-3F06AA74B0D1}" type="YVALUE">
+                    <a:fld id="{47ACA0A6-2CEA-4825-B7B9-B3FF85A2D03E}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1517,7 +1625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{750F2377-2D1C-4C2F-943A-4D162233DFE1}" type="CELLRANGE">
+                    <a:fld id="{929233F2-805B-43AD-B6AD-0A5FD476D917}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1526,7 +1634,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D1760E4A-A003-4D94-B0AD-FCE5CACA99AE}" type="XVALUE">
+                    <a:fld id="{7A7C0037-58B1-4D9B-9802-645800154B20}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1535,7 +1643,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{11E78FA6-2596-48D2-AAA2-CEF362799C73}" type="YVALUE">
+                    <a:fld id="{D285AB2B-3BDF-4279-A11D-22BA34E64EB2}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1569,7 +1677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6434812D-AC4D-4867-918E-59EC86AE1813}" type="CELLRANGE">
+                    <a:fld id="{2EDDD045-EC23-4125-9D71-9633881C2893}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1578,7 +1686,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CB3C7DB3-FF59-4382-A744-9C1E85FF7805}" type="XVALUE">
+                    <a:fld id="{4E76B0D4-75FD-4C68-B97F-DC4CE0BC8B81}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1587,7 +1695,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1A55401F-9463-43D2-B7CC-4F4B75223E1E}" type="YVALUE">
+                    <a:fld id="{E05F7FE1-6E61-4474-8354-455E05E618A8}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1621,7 +1729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{593F529A-8162-4962-8BAB-86641ABA41C0}" type="CELLRANGE">
+                    <a:fld id="{FF34EFEB-B795-485B-B967-33F7B275D7E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1630,7 +1738,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{14E9449F-5E5A-43AD-8086-AFD41EF3862D}" type="XVALUE">
+                    <a:fld id="{7F190023-2B8C-4901-B359-148807B2D970}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1639,7 +1747,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FD6B2F64-22B9-483A-868A-311725B50936}" type="YVALUE">
+                    <a:fld id="{225638CC-51A0-4242-A746-2428B3A4E383}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1673,7 +1781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D09F13AB-2C8E-4E81-98CD-306494538575}" type="CELLRANGE">
+                    <a:fld id="{FA20F303-6445-406A-9646-E4F3CEFDA62F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1682,7 +1790,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{47A65810-970F-447A-AFFD-0524B0475611}" type="XVALUE">
+                    <a:fld id="{0CEE5ED9-38CB-48B9-9325-EDCD458437D1}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1691,7 +1799,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{AD7F59B8-667F-4AE9-B146-785B18288ECA}" type="YVALUE">
+                    <a:fld id="{CE004A94-E47D-40BB-B4E5-21DC9E31D69E}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1731,7 +1839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3E65EE9-82E2-4916-8926-481EAEBF8956}" type="CELLRANGE">
+                    <a:fld id="{67D07BE4-D5EE-4928-BEB4-CEF19258746C}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1740,7 +1848,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9FE7BBAF-EABB-46D8-93F7-B2D57D3E571F}" type="XVALUE">
+                    <a:fld id="{8CB304C8-9604-4596-95D5-6969D26E1760}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1749,7 +1857,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{177427D3-C411-4111-B7F4-771C26B1B353}" type="YVALUE">
+                    <a:fld id="{1954F740-A5B0-4C97-9973-5FDD7763F7BB}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1782,7 +1890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D29D786-80D5-4179-A29A-496575F280A2}" type="CELLRANGE">
+                    <a:fld id="{935C1EEB-B8E1-4F3F-9F62-55C3B99EF756}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1791,7 +1899,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{806E381A-F291-4421-9583-7CF02551800D}" type="XVALUE">
+                    <a:fld id="{926C13F5-B508-43DB-BE23-1C3C40823C30}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1800,7 +1908,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1CE4E71B-E25A-4C26-A22E-C44743E86238}" type="YVALUE">
+                    <a:fld id="{8C61316A-0D71-4C3A-B0FA-F2D89B2D5E40}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1840,7 +1948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4070CF23-7EF9-4595-88D2-BEBA3FB9B12F}" type="CELLRANGE">
+                    <a:fld id="{78D89A49-7E57-45F6-AFE4-A596844BF1D3}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1849,7 +1957,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3B3BACBF-46D1-459B-AE4B-46BE0784D833}" type="XVALUE">
+                    <a:fld id="{61F61973-C23A-4B24-8375-9B88A455DC7D}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1858,7 +1966,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8632738D-EA25-41A7-8EDE-1C6958CB8C48}" type="YVALUE">
+                    <a:fld id="{CF90A47A-0E7B-487A-B869-DA82FF6EBA28}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1891,7 +1999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78D6727B-826E-4EA7-8FE4-569C2325CBEE}" type="CELLRANGE">
+                    <a:fld id="{B05868A1-1300-469F-9BB2-BCF1F80ADF3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1900,7 +2008,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D09D583F-12E9-489E-850A-265EA9084EC4}" type="XVALUE">
+                    <a:fld id="{980D784D-D788-4025-BF75-0D5F2EA33FF3}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1909,7 +2017,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3047854C-AF73-49D6-9072-D9CA70C0CCA6}" type="YVALUE">
+                    <a:fld id="{A38EDBF6-4E5B-48BF-B10A-A6079EE7D2B7}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1949,7 +2057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0B6C49E-3156-44A3-8DD5-B458C9CCB394}" type="CELLRANGE">
+                    <a:fld id="{7701F4A5-17B7-470E-8B0F-A6CEA5CF0E38}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1958,7 +2066,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1D0AB6BA-C57B-497D-BA49-AD20D861C35E}" type="XVALUE">
+                    <a:fld id="{1BB97885-F6D4-4B80-B0B1-5BBC3E6B6A60}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1967,7 +2075,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{81233E98-1920-4DF2-B964-287990D83039}" type="YVALUE">
+                    <a:fld id="{5A04E1DD-3AA4-400F-AD26-79B2E175B93E}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2000,7 +2108,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FACFFFD-CA55-4269-8A7C-AC08565AE4C3}" type="CELLRANGE">
+                    <a:fld id="{84AA38FC-9DED-44D1-8214-6EBBE78C0969}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2009,7 +2117,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{19F20678-9EB2-4A1F-B3F9-74E03C6EFD0F}" type="XVALUE">
+                    <a:fld id="{82942748-F7DB-4858-BEFA-6A9CC0265E89}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2018,7 +2126,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FBC65663-34DA-4075-BECB-FA0D0A8E2B78}" type="YVALUE">
+                    <a:fld id="{71649AB9-52C9-479B-A654-8D9290A915E7}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2058,7 +2166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF2F1DC9-9A8D-4B13-8F43-98961BAC0F99}" type="CELLRANGE">
+                    <a:fld id="{1CFFFC4B-A6A1-47A1-9FF7-E34F7ECFFF42}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2067,7 +2175,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{33527AEA-356A-407C-B5CA-2BB109580EBE}" type="XVALUE">
+                    <a:fld id="{F75F1257-E31F-488E-AE8D-46B7BF99FD87}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2076,7 +2184,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{47C8580E-F323-427A-8A73-E4F71662B2CC}" type="YVALUE">
+                    <a:fld id="{5935E4B7-B953-4268-96EF-A9D06CD4B582}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2109,7 +2217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{654D1F33-2065-485F-BC83-CAB7A6C72CCC}" type="CELLRANGE">
+                    <a:fld id="{6EF49479-7362-414C-8668-702C8324E6A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2118,7 +2226,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9338BBD4-6AE0-431A-9771-AFFB16943F88}" type="XVALUE">
+                    <a:fld id="{C804BCBB-DC5F-4D17-B1F5-70F374CA7A61}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2127,7 +2235,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{63DC0D2F-09FB-443E-8CE5-7AD9F780C8C3}" type="YVALUE">
+                    <a:fld id="{22C4C3D2-1000-42FD-A7C4-7722C5CD728F}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2161,7 +2269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AA773D0-87BD-4E30-B436-3D1F9D885338}" type="CELLRANGE">
+                    <a:fld id="{21D93D20-17C8-4424-881E-039EAC0F9EDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2170,7 +2278,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{42A21344-509E-4AFD-BFA5-D18BC464BCC8}" type="XVALUE">
+                    <a:fld id="{3BF2DC79-7216-4DAB-87D6-4291BD32579A}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2179,7 +2287,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E1E9B984-BF9B-4BEA-A856-61E0145B5AE9}" type="YVALUE">
+                    <a:fld id="{3FC3F3CF-7AFE-4743-A58C-2A7EDD6004FB}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2213,7 +2321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A61BD076-D04D-44AF-8DEA-B8E1D0234100}" type="CELLRANGE">
+                    <a:fld id="{64CA5607-F571-4E19-8B9E-CD499ACAB48B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2222,7 +2330,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0AF92159-F670-45A6-A52A-C4611C8565DD}" type="XVALUE">
+                    <a:fld id="{1F7D3B31-34E8-4803-90EB-4C208F17C1A3}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2231,7 +2339,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2BCFC519-0900-4B8B-8A7F-F8053FFACE67}" type="YVALUE">
+                    <a:fld id="{7F1D6957-8B91-49FC-8240-B167CF2B03BC}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2265,7 +2373,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31ADDB30-559B-4CDC-8F36-8F72AFEE6344}" type="CELLRANGE">
+                    <a:fld id="{50E073FA-92FE-418A-9D0C-ADCF23250E6D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2274,7 +2382,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{888E330A-FBD6-4D34-9A1C-23BF5373492D}" type="XVALUE">
+                    <a:fld id="{E6AE374B-26EB-4CB9-909F-65544B85399E}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2283,7 +2391,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3A7BA2A2-F2F5-48F8-BE99-34176FD9DDAB}" type="YVALUE">
+                    <a:fld id="{CBFAA024-19C7-4198-BEC2-A043649E1203}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2327,7 +2435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{399BA2CA-CFC4-41DD-A62B-E58A3C4F5615}" type="CELLRANGE">
+                    <a:fld id="{E64844CE-49C7-435A-8BF2-515BD6D4926F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2336,7 +2444,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4E3A0A17-E146-4BF8-AC7A-784CD6C35F2F}" type="XVALUE">
+                    <a:fld id="{9CE312F1-BCF9-4A46-98BD-82011F64A574}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2345,7 +2453,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{ABF837DB-8438-4733-ACAC-93A6C39741C4}" type="YVALUE">
+                    <a:fld id="{CAB91113-385E-4B69-9E3C-2DC317198D6A}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2405,7 +2513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C150188E-1FEE-4307-BA3F-9032593E8F4B}" type="CELLRANGE">
+                    <a:fld id="{BE36308B-B6F0-467F-B012-80CDE62C67DA}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2414,7 +2522,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8CD8FA0B-EB3D-4946-A276-63C576725759}" type="XVALUE">
+                    <a:fld id="{6AA4F942-9590-4392-BE4C-D2EB7C51571D}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2423,7 +2531,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{71A32A13-B168-4121-BA14-F2AEEE370F2F}" type="YVALUE">
+                    <a:fld id="{0FCE1D9B-4FE0-4EEE-A880-CF7D77368495}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2456,7 +2564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FEBCE71-5591-410F-BC91-908F55C44B44}" type="CELLRANGE">
+                    <a:fld id="{944DF7B6-E668-4112-93A0-D31170F70425}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2465,7 +2573,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5F548F73-E406-4D48-A25F-09EDD5DD4369}" type="XVALUE">
+                    <a:fld id="{A73AE4B6-1309-4009-A7C9-4057CEABEBF4}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2474,7 +2582,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6D8F4BEB-07D0-4BDB-B338-E3079DD3A1F3}" type="YVALUE">
+                    <a:fld id="{A23A01B5-DC7C-48B2-83B7-FF7E7F5D141F}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2508,7 +2616,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1822D6BA-A694-45CF-A50F-B30BFC280C94}" type="CELLRANGE">
+                    <a:fld id="{C6ED7F55-815D-4BBB-8C13-AEC92C4C8768}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2517,7 +2625,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6127A72D-CC7F-4E6A-BCA3-4A3645A66A89}" type="XVALUE">
+                    <a:fld id="{03839884-3CEC-46E9-B177-CE706B0FA1D0}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2526,7 +2634,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{394359D9-EBB8-4392-A25B-22A5D5E6408F}" type="YVALUE">
+                    <a:fld id="{40E9DA11-5440-4544-A2C8-C7ED698D0E78}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2550,6 +2658,694 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{00C7095E-FD6E-4A0D-9CE2-CE6FC3C00841}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{1011A824-8E24-4BCB-9129-A41BF630B01E}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FA4D54AA-4CE1-4AA9-A2D8-3E9504591A9D}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{96D313B5-2493-423B-B89A-97BF94D62751}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E7F14B85-DCF3-42CB-8D20-81296BD17FB7}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{252F5504-D904-489E-A92F-F8BA50821F28}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{10944B6F-0F30-4BCB-B951-B265D454CB55}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{05FBCF3A-135A-4C2C-989F-02B0A874E05F}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7858B950-17E1-4848-BEB2-D6052F2CFD59}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{E22DAA86-5643-4D1A-A726-D29742DF5E93}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C0F5F207-F59B-4F4B-9D6C-D6B74082B71C}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{78AF2366-F39F-4E66-BD4A-8BB0B4FE6C66}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6C2E242C-8BD4-4D47-9450-F8D01C1D6EC7}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{90E981D4-2832-476B-B885-08A9C42DECE4}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{57F44848-CBC4-4D95-8000-EA28DF51E12F}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{85FAD573-625B-4DC7-80BE-1EEF5921EBD3}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A608C69F-B8BD-4C0D-A017-3D0EACB438EA}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{25CAA8F6-1017-41F6-9AC2-EF79A01F5617}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{05597711-E534-4FBF-B0E1-6B288F72A028}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{3DFE6FD6-65BF-4CE8-AD98-1C78841AB535}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D3D2A9D8-D70F-4DED-BEDF-E85B2659B773}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{2B55082D-6A43-4F58-8B43-35E61A2889FA}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3A0A86FE-F37D-4754-8E30-E8631D992731}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{399CFDE3-2573-4CB7-85DF-9A7736531CD6}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{06375356-1FF4-46F3-B351-421E23D8AB80}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{A900CDFA-1CD0-4028-B43C-11B8726A264B}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{161465C1-7247-4656-8CE0-F4D79F52CA30}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{022CC7B3-503F-47C0-BF1C-7E7F4D7A04F1}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{882BFAAA-0074-4130-B425-2644DC9E4B23}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{6389ED30-D13F-4194-B887-79E7EB5133BE}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5EB1-4DA5-A68E-8D5F65542DAF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1738ADA6-9EC8-4C86-AD42-3C5CC25746B4}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{268EE319-3481-490B-B2B1-4485623407DD}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5EB1-4DA5-A68E-8D5F65542DAF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2616,10 +3412,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Detay!$E$2:$E$42</c:f>
+              <c:f>Detay!$E$2:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2742,16 +3538,64 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Detay!$F$2:$F$42</c:f>
+              <c:f>Detay!$F$2:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>12464</c:v>
                 </c:pt>
@@ -2874,6 +3718,54 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4112,17 +5004,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="117.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -4150,7 +5042,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4170,7 +5062,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4190,7 +5082,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4210,7 +5102,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4230,10 +5122,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4250,7 +5142,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4270,7 +5162,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4290,7 +5182,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4310,7 +5202,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4330,7 +5222,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4350,7 +5242,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4370,7 +5262,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -4390,10 +5282,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -4410,10 +5302,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -4430,7 +5322,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4450,7 +5342,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4470,7 +5362,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4490,7 +5382,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4510,7 +5402,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4530,7 +5422,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4550,10 +5442,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4570,7 +5462,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -4590,7 +5482,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4610,7 +5502,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4630,7 +5522,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4650,7 +5542,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4670,7 +5562,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4690,7 +5582,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -4710,10 +5602,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -4730,7 +5622,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -4750,7 +5642,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4770,7 +5662,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -4790,7 +5682,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4810,7 +5702,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4830,7 +5722,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -4850,7 +5742,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -4870,7 +5762,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -4890,7 +5782,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -4910,7 +5802,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -4930,7 +5822,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4950,7 +5842,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -4970,8 +5862,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>41</v>
+      <c r="A43" s="6">
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>110</v>
@@ -4987,6 +5879,326 @@
       </c>
       <c r="F43" s="3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F44" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F45" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F47" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F49" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F50" s="3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F51" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F52" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F53" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F54" s="3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F55" s="3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F57" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F58" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/NLP Timeline.xlsx
+++ b/NLP Timeline.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozcan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B691D-77E0-42A4-909B-9B4DC7C4A9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59778E91-1F1B-4362-8611-48EB55A4FCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2220" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detay" sheetId="1" r:id="rId1"/>
     <sheet name="Timeline" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Detay!$A$1:$F$66</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
   <si>
     <t>Algorithm</t>
   </si>
@@ -461,6 +464,51 @@
   </si>
   <si>
     <t>Language Model</t>
+  </si>
+  <si>
+    <t>Transformer-XL: Attentive Language Models Beyond a Fixed-Length Context</t>
+  </si>
+  <si>
+    <t>Transformer-XL</t>
+  </si>
+  <si>
+    <t>ELECTRA</t>
+  </si>
+  <si>
+    <t>ELECTRA: Pre-training Text Encoders as Discriminators Rather Than Generators</t>
+  </si>
+  <si>
+    <t>CodeBERT: A Pre-Trained Model for Programming and Natural Languages</t>
+  </si>
+  <si>
+    <t>Pre-trained Models for Natural Language Processing: A Survey</t>
+  </si>
+  <si>
+    <t>Discriminative Adversarial Search for Abstractive Summarization</t>
+  </si>
+  <si>
+    <t>MPNet: Masked and Permuted Pre-training for Language Understanding</t>
+  </si>
+  <si>
+    <t>CodeBERT</t>
+  </si>
+  <si>
+    <t>MPNet</t>
+  </si>
+  <si>
+    <t>Review Article</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>Permuted Language Model</t>
+  </si>
+  <si>
+    <t>MatchSUM</t>
+  </si>
+  <si>
+    <t>Extractive Summarization as Text Matching</t>
   </si>
 </sst>
 </file>
@@ -515,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -538,22 +586,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,9 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -654,7 +688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7DCD7A4-DC7C-470E-BDBF-9B17845D91F2}" type="CELLRANGE">
+                    <a:fld id="{E2AD28E7-0703-4E45-B208-2C4E98D2C118}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -663,7 +697,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4F72257F-6D42-4828-A26F-25F6655ED3E4}" type="XVALUE">
+                    <a:fld id="{E014149D-131C-4FB6-B837-BFA6189BDB65}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -672,7 +706,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0675ADEC-C409-452C-B175-A32597C4250D}" type="YVALUE">
+                    <a:fld id="{F3912355-2363-4139-BD66-036467A2A0F6}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -706,7 +740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF88C1A2-0B34-48F6-9B92-82D98DBEB1C0}" type="CELLRANGE">
+                    <a:fld id="{E17884AD-7881-47F5-9334-3529653C6702}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -715,7 +749,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{00571E7C-B346-403E-B00E-E853B9B8393C}" type="XVALUE">
+                    <a:fld id="{2AB4A644-C9C4-423C-AEE9-413D5B8F8B20}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -724,7 +758,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5EDD4329-D73A-44E5-813A-D44B1F2EAA06}" type="YVALUE">
+                    <a:fld id="{E1D20EDB-9C2D-431E-968D-C1C2030389AA}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -758,7 +792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5388E911-7234-4B5E-92E5-107D75218C02}" type="CELLRANGE">
+                    <a:fld id="{A60AD57A-3681-45F0-A9E9-CDE2C41DCA51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -767,7 +801,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7A1CA3DB-F7EF-4BC1-8C5C-0547DCFE5564}" type="XVALUE">
+                    <a:fld id="{A37EF583-AA12-42CE-8135-4BCD0D585392}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -776,7 +810,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C9716B18-5C54-4878-8385-A7CBD377897A}" type="YVALUE">
+                    <a:fld id="{ABE1B3B9-374E-4578-8A85-54157C61F038}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -810,7 +844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1147EE98-626D-41AD-9331-5970B0E4544C}" type="CELLRANGE">
+                    <a:fld id="{8B417A81-418F-4610-9CF5-6569202AA53C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -819,7 +853,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6C1798A9-3EF2-4D6D-BAD7-6EF3392764EE}" type="XVALUE">
+                    <a:fld id="{F0D8861C-0316-477C-AE9B-7FE17EB6841F}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -828,7 +862,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A7E338B6-6464-4343-B56F-637BEE76AAED}" type="YVALUE">
+                    <a:fld id="{30F21356-195C-4A6E-849B-E6048B230515}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -857,19 +891,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.765928921047031E-2"/>
-                  <c:y val="-4.8732943469787359E-3"/>
-                </c:manualLayout>
-              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71836225-258B-4B22-9D76-1C6554F5547B}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{6301B519-FAFC-4DCB-A3F6-C0F1FE65AC56}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -877,7 +905,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{627CDE5F-7618-46B6-8E45-6F611BEA7A9B}" type="XVALUE">
+                    <a:fld id="{E8862694-AAB3-422E-BC42-89AE50CA9272}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -886,58 +914,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C8C47E4A-D075-49F6-9C67-E70868090486}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{95012E16-77F5-4E93-93A9-32BB3A0BACF5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{7499A950-0153-4266-84FA-A2A42187DEA0}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{D190CC4B-D66F-436E-941C-F0A2CA719932}" type="YVALUE">
+                    <a:fld id="{4517647D-FB0E-49D9-94AB-3124D52C2CC2}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -960,25 +937,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000004-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.9090909090909021E-2"/>
-                  <c:y val="-1.2042389210019267E-3"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FE1DB66-0637-4219-8CE9-B3E8697EED46}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{8988BDD6-4DE1-43FF-AC36-4A5C68A47DD2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -986,7 +957,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{75A49CC1-E648-4333-9273-AAC8E26816F9}" type="XVALUE">
+                    <a:fld id="{C0507B34-F977-48A7-A589-B70C7B3F7613}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -995,58 +966,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{DDF9DAAC-9EA4-41EF-B3A1-1A4DC41BA21C}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C65A0943-1BBB-4A43-A672-7E1EE569C5BF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{33A96E0D-211C-4C38-87FB-4897EAA2756A}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{4E2CFDB8-0F0C-4849-B039-D84023288CF6}" type="YVALUE">
+                    <a:fld id="{8AAEE4BD-0F19-41C6-B14C-8975B56C08A9}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1069,25 +989,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000005-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.4303030303030374E-2"/>
-                  <c:y val="-2.4084778420040303E-3"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{030872A1-A0B1-40B0-9E74-2777C255EBFF}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{F7326ADA-2809-4A8D-A28A-F3F7B5EDA909}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1095,7 +1009,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{60CB62ED-05F8-4129-91F6-B6FEFD8E60C6}" type="XVALUE">
+                    <a:fld id="{8C723AB4-EA10-4373-98AD-617C5848ECC3}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1104,58 +1018,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9FA482C4-7735-4F98-9F1E-80AAC0666A81}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B7992D9A-6ACB-457B-8CA2-E7B13BED1533}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{0F9C3D18-89AD-4B5C-A587-39AAD28FE0C6}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{39B75708-88BF-40E0-B77D-DD05148CC854}" type="YVALUE">
+                    <a:fld id="{E4D0B35E-7B0E-4D1D-9B6E-FD2084CB42BC}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1178,18 +1041,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000006-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD9CF673-2DA4-4B1E-953B-1CBAEAC2A07C}" type="CELLRANGE">
+                    <a:fld id="{95CDAC2C-F50D-4B5F-B3A5-7A8235486BDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1198,7 +1061,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7D392E69-DC7F-4167-928A-E3C0F52D269A}" type="XVALUE">
+                    <a:fld id="{7512EF34-7E90-43A0-B16D-564E90FD4BE6}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1207,7 +1070,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1E3F890C-2B22-46C2-A7B7-824A080E09A5}" type="YVALUE">
+                    <a:fld id="{0092F62E-D5E1-462D-AD65-5DA5614BB48B}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1230,18 +1093,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000007-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="8"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB11D5C9-EF0E-43C0-81B2-561694CB12BF}" type="CELLRANGE">
+                    <a:fld id="{1437EACD-D566-4002-A305-F0D9B4F1DEFE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1250,7 +1113,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5AD50C01-FCB2-4FAB-8DA1-79694FDA3436}" type="XVALUE">
+                    <a:fld id="{67BF1070-2284-4143-8CCE-5B31580AB4B6}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1259,7 +1122,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B0502A43-D635-4C32-9E11-361548A70E66}" type="YVALUE">
+                    <a:fld id="{1D18A93A-B8C4-45C3-9444-C2D9F63CD5D2}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1282,18 +1145,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000008-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="9"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9C287DE-5448-4F28-A5CE-D3287F1857E4}" type="CELLRANGE">
+                    <a:fld id="{E725FDA0-7820-40D7-9464-50065B6D138F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1302,7 +1165,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4F467BC5-93A8-4C83-AC25-1B7D08380EF0}" type="XVALUE">
+                    <a:fld id="{38CA9A1D-5497-43A1-81C2-477BA31850FC}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1311,7 +1174,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7C0B76EA-C294-40FE-A869-4E2D2B21316E}" type="YVALUE">
+                    <a:fld id="{EADC834B-DB14-4BD0-8FC1-D004C0E10A66}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1334,25 +1197,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000009-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.4222057927795425E-16"/>
-                  <c:y val="-9.6339113680154135E-3"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="10"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27C5CD35-76C6-4081-AACF-47A013A22F75}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{6341BBF5-B5F0-4661-B776-AD581A34BE9C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1360,7 +1217,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C78BD33F-9DAB-4267-8A93-1F6547432020}" type="XVALUE">
+                    <a:fld id="{B53FA741-AB04-4675-9A01-A8AF352291C6}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1369,125 +1226,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BE1F1B35-1ACF-47A2-9F4F-868805C55CF6}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8000000000000001E-2"/>
-                  <c:y val="4.8169556840077067E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{566858C6-2C95-471A-8AD6-94215E035960}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{4EF5D53D-108C-4C2F-8B6B-FA5FE81106FD}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{47B4B630-574D-4434-8EC9-9EF332539BE7}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D1E26389-F646-48BC-AAA1-F6D58CEAB5D1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{D2B4D8DE-BD63-4906-B258-4BD9821CB754}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{F9861AB6-C370-4C0D-BA3F-395A0F343CAD}" type="YVALUE">
+                    <a:fld id="{71EA998E-830B-4933-A1C9-96789563D329}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1510,18 +1249,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{0000000A-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="11"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF041175-D524-4066-A1BD-C2EA58D9CA62}" type="CELLRANGE">
+                    <a:fld id="{02F4C383-CE61-417C-A920-4AAE474F5BA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1530,7 +1269,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A3DF3C84-AE88-4660-A3B3-EBD8F17E6E1E}" type="XVALUE">
+                    <a:fld id="{234F6FC1-8782-4767-83F1-4C7D376FC326}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1539,7 +1278,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D9B61F9A-A2A5-47D7-A2E8-906D6703CA53}" type="YVALUE">
+                    <a:fld id="{844AFF2F-E46A-4BFF-A0EA-43111C920C43}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1562,18 +1301,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{0000000B-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="12"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15288BBE-D360-4F01-BF7B-78037D2BDA8B}" type="CELLRANGE">
+                    <a:fld id="{AAA1B044-0F16-4BE6-80AE-2CAF5826EF71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1582,7 +1321,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{95881155-91D7-4C70-AC03-F2BC90C1F4A4}" type="XVALUE">
+                    <a:fld id="{A6489917-B90D-4303-8C4E-E9AD16F3F722}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1591,7 +1330,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{47ACA0A6-2CEA-4825-B7B9-B3FF85A2D03E}" type="YVALUE">
+                    <a:fld id="{5F055DD2-742D-4EE6-859E-AFC8F849ADD4}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1614,18 +1353,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{0000000C-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="13"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{929233F2-805B-43AD-B6AD-0A5FD476D917}" type="CELLRANGE">
+                    <a:fld id="{F472FE3B-D117-46FA-A44F-F5279497498E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1634,7 +1373,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7A7C0037-58B1-4D9B-9802-645800154B20}" type="XVALUE">
+                    <a:fld id="{5C4F7A70-9382-4662-893D-10F5A1E671C7}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1643,7 +1382,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D285AB2B-3BDF-4279-A11D-22BA34E64EB2}" type="YVALUE">
+                    <a:fld id="{1116F68A-259C-4B76-844B-5B7500BA2955}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1666,18 +1405,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{0000000D-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="14"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EDDD045-EC23-4125-9D71-9633881C2893}" type="CELLRANGE">
+                    <a:fld id="{5DD1D743-13E8-4AEE-A648-088D4736622C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1686,7 +1425,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4E76B0D4-75FD-4C68-B97F-DC4CE0BC8B81}" type="XVALUE">
+                    <a:fld id="{BAC87205-A889-4215-955E-8F7B37A9ACB1}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1695,7 +1434,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E05F7FE1-6E61-4474-8354-455E05E618A8}" type="YVALUE">
+                    <a:fld id="{8918F893-3C86-41C9-BBC7-26AC92B18864}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1718,18 +1457,75 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{0000000E-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9090909090909021E-2"/>
+                  <c:y val="-1.2042389210019267E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF34EFEB-B795-485B-B967-33F7B275D7E7}" type="CELLRANGE">
+                    <a:fld id="{4E0FF4B6-724B-4833-98D5-5586077A916A}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{5E14B321-DAAA-4154-861A-A8854B5B7B07}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{AADFB396-6DD5-42CF-A40E-8F8426E741DE}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{02C13B56-1815-418C-B1C2-BA2D9A9147C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1738,7 +1534,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7F190023-2B8C-4901-B359-148807B2D970}" type="XVALUE">
+                    <a:fld id="{9F3319EA-81F8-425F-8EEB-AC137A51DBF7}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1747,7 +1543,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{225638CC-51A0-4242-A746-2428B3A4E383}" type="YVALUE">
+                    <a:fld id="{A1D0CBCA-7056-4F5F-AEB8-B8E2DE8C8AA7}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1770,18 +1566,132 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000010-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4303030303030374E-2"/>
+                  <c:y val="-2.4084778420040303E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA20F303-6445-406A-9646-E4F3CEFDA62F}" type="CELLRANGE">
+                    <a:fld id="{1784140F-70E0-4B95-9A9F-4332DC5F8C42}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{BC8FD95A-7C29-48A7-8BB0-D047BDA83A0D}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{6C0A6461-0CAA-42B1-85CA-41145D4CABFF}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8000000000000001E-2"/>
+                  <c:y val="4.8169556840077067E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AEA57BD2-60BE-4FAD-9256-1BE9560ED516}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{609A8F82-BCD3-46AE-9A32-86536B95CC94}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{E7BAE98A-2EE2-4AE3-9E7D-14AA98C9FCFA}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{59D30F84-F753-48E0-A28E-6D20623CD551}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1790,7 +1700,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0CEE5ED9-38CB-48B9-9325-EDCD458437D1}" type="XVALUE">
+                    <a:fld id="{3A67EC22-DBEB-4A4F-B415-97711B7C50C3}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1799,7 +1709,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CE004A94-E47D-40BB-B4E5-21DC9E31D69E}" type="YVALUE">
+                    <a:fld id="{487F926B-02F5-45A9-9955-5484C871DCF9}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1822,25 +1732,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000013-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="3.6127167630057803E-3"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="20"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67D07BE4-D5EE-4928-BEB4-CEF19258746C}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{002AD732-3DCE-4010-B498-FB506EA3A1CC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1848,7 +1752,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8CB304C8-9604-4596-95D5-6969D26E1760}" type="XVALUE">
+                    <a:fld id="{BD743556-C2B3-4707-9D8C-B48F3634A554}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1857,58 +1761,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1954F740-A5B0-4C97-9973-5FDD7763F7BB}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{935C1EEB-B8E1-4F3F-9F62-55C3B99EF756}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{926C13F5-B508-43DB-BE23-1C3C40823C30}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{8C61316A-0D71-4C3A-B0FA-F2D89B2D5E40}" type="YVALUE">
+                    <a:fld id="{8F3AF9F3-C7C4-408F-B105-83276D5BD986}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1931,16 +1784,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000014-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2121212121212263E-2"/>
-                  <c:y val="-1.9267822736030827E-2"/>
+                  <c:x val="0"/>
+                  <c:y val="3.6127167630057803E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1948,7 +1801,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78D89A49-7E57-45F6-AFE4-A596844BF1D3}" type="CELLRANGE">
+                    <a:fld id="{8F3DFBDB-2D2D-49DF-B172-C08A86FDB8B2}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1957,7 +1810,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{61F61973-C23A-4B24-8375-9B88A455DC7D}" type="XVALUE">
+                    <a:fld id="{2B66629E-7DA5-44F1-9567-A6632D0F918D}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1966,7 +1819,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CF90A47A-0E7B-487A-B869-DA82FF6EBA28}" type="YVALUE">
+                    <a:fld id="{6271B87B-3EB4-4B86-A8AC-7B980B6EE9EF}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1988,18 +1841,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000015-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="22"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B05868A1-1300-469F-9BB2-BCF1F80ADF3E}" type="CELLRANGE">
+                    <a:fld id="{145AE988-EF0B-47F0-A81C-7111057D54C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2008,7 +1861,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{980D784D-D788-4025-BF75-0D5F2EA33FF3}" type="XVALUE">
+                    <a:fld id="{1A3881CA-A6E2-4CBA-A0FF-6152D5F32B66}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2017,7 +1870,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A38EDBF6-4E5B-48BF-B10A-A6079EE7D2B7}" type="YVALUE">
+                    <a:fld id="{94E04405-3455-49CF-97D7-9BD9EC58E30B}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2040,25 +1893,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000016-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.4222057927795425E-16"/>
-                  <c:y val="-9.6339113680154135E-3"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="23"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7701F4A5-17B7-470E-8B0F-A6CEA5CF0E38}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{E09DB386-F6B8-47EB-B4AB-7FCDCDCF348B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2066,7 +1913,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1BB97885-F6D4-4B80-B0B1-5BBC3E6B6A60}" type="XVALUE">
+                    <a:fld id="{ABBA85FC-B8CA-4428-B948-898FB0BC0C9E}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2075,58 +1922,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5A04E1DD-3AA4-400F-AD26-79B2E175B93E}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{84AA38FC-9DED-44D1-8214-6EBBE78C0969}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{82942748-F7DB-4858-BEFA-6A9CC0265E89}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{71649AB9-52C9-479B-A654-8D9290A915E7}" type="YVALUE">
+                    <a:fld id="{771F1163-516B-4584-B14C-2A0021EB266F}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2149,25 +1945,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000017-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.4424242424242565E-2"/>
-                  <c:y val="1.2042389210019267E-3"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="24"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CFFFC4B-A6A1-47A1-9FF7-E34F7ECFFF42}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{2E42BE2B-260E-4483-B300-7FD66AAA84FA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2175,7 +1965,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F75F1257-E31F-488E-AE8D-46B7BF99FD87}" type="XVALUE">
+                    <a:fld id="{B14E1687-D447-4B99-8D92-DCFC3D2F6FA1}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2184,58 +1974,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5935E4B7-B953-4268-96EF-A9D06CD4B582}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6EF49479-7362-414C-8668-702C8324E6A6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{C804BCBB-DC5F-4D17-B1F5-70F374CA7A61}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{22C4C3D2-1000-42FD-A7C4-7722C5CD728F}" type="YVALUE">
+                    <a:fld id="{272F0EF9-8D1E-4E93-9213-45F3F619A781}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2258,18 +1997,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000018-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="31"/>
+              <c:idx val="25"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21D93D20-17C8-4424-881E-039EAC0F9EDD}" type="CELLRANGE">
+                    <a:fld id="{9267803A-63ED-495E-9F05-AD9864ADDEC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2278,7 +2017,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3BF2DC79-7216-4DAB-87D6-4291BD32579A}" type="XVALUE">
+                    <a:fld id="{960DA77C-D4AB-4CF0-9191-33DFF1BA587C}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2287,7 +2026,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3FC3F3CF-7AFE-4743-A58C-2A7EDD6004FB}" type="YVALUE">
+                    <a:fld id="{A82E9E0A-BD93-4F4A-98E2-AC26E7B05082}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2310,18 +2049,85 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000019-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="32"/>
+              <c:idx val="26"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2121212121212263E-2"/>
+                  <c:y val="-1.9267822736030827E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64CA5607-F571-4E19-8B9E-CD499ACAB48B}" type="CELLRANGE">
+                    <a:fld id="{DAE6770B-8958-4C9F-843A-F8B69575F081}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{B504BC54-CFD2-47EF-93A5-E22CD8FD20CC}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{A0F31066-BBFF-49FA-84B6-5700E6F9972C}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E483D978-1737-4244-82A6-11F4C54A19F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2330,7 +2136,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1F7D3B31-34E8-4803-90EB-4C208F17C1A3}" type="XVALUE">
+                    <a:fld id="{6F9FEFF6-B683-4C5A-8226-1F11EC0CAA7F}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2339,7 +2145,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7F1D6957-8B91-49FC-8240-B167CF2B03BC}" type="YVALUE">
+                    <a:fld id="{D5D348F1-155C-4503-AB6F-55198F2F20F0}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2362,18 +2168,28 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{0000001C-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="33"/>
+              <c:idx val="29"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50E073FA-92FE-418A-9D0C-ADCF23250E6D}" type="CELLRANGE">
+                    <a:fld id="{53844DFD-F6C9-44A3-97D8-474F22CB3238}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2382,7 +2198,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E6AE374B-26EB-4CB9-909F-65544B85399E}" type="XVALUE">
+                    <a:fld id="{4F252224-DC0B-43BE-BF16-4C29DFFC2EB4}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2391,7 +2207,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CBFAA024-19C7-4198-BEC2-A043649E1203}" type="YVALUE">
+                    <a:fld id="{B87CA789-3E2A-4CB7-A3FD-BE85EC8D938B}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2414,28 +2230,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{0000001E-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="34"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
+              <c:idx val="31"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E64844CE-49C7-435A-8BF2-515BD6D4926F}" type="CELLRANGE">
+                    <a:fld id="{48991DDD-AAD9-47CD-AE76-459EF3594C75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2444,7 +2250,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9CE312F1-BCF9-4A46-98BD-82011F64A574}" type="XVALUE">
+                    <a:fld id="{BE604CD4-AC03-4505-9CFF-E1CB7CBEBF9C}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2453,7 +2259,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CAB91113-385E-4B69-9E3C-2DC317198D6A}" type="YVALUE">
+                    <a:fld id="{6CAF74DE-D31B-4760-9EE9-695880657856}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2476,45 +2282,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{0000001F-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="36"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.6970986734753052E-4"/>
-                  <c:y val="3.5704555570904516E-3"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="32"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE36308B-B6F0-467F-B012-80CDE62C67DA}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{64B7B809-5FCA-43A1-9CD8-00E341F9CE77}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2522,7 +2302,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6AA4F942-9590-4392-BE4C-D2EB7C51571D}" type="XVALUE">
+                    <a:fld id="{CCE56593-57BE-479D-8CE1-F6A5EC32EAD6}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2531,58 +2311,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0FCE1D9B-4FE0-4EEE-A880-CF7D77368495}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-9127-48A3-BC64-611D9913A2C0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{944DF7B6-E668-4112-93A0-D31170F70425}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{A73AE4B6-1309-4009-A7C9-4057CEABEBF4}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{A23A01B5-DC7C-48B2-83B7-FF7E7F5D141F}" type="YVALUE">
+                    <a:fld id="{B4244B09-6CF4-49F5-B045-BCD17A9965FF}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2605,18 +2334,132 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000020-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="40"/>
+              <c:idx val="33"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.765928921047031E-2"/>
+                  <c:y val="-4.8732943469787359E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6ED7F55-815D-4BBB-8C13-AEC92C4C8768}" type="CELLRANGE">
+                    <a:fld id="{F4DE2F9E-192E-4E49-B5FF-D7CD3931B79F}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{B4107BBE-C43B-4AFF-8E84-23C71C627246}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{F0467560-5BFB-4557-8641-75B0EF1747F2}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4222057927795425E-16"/>
+                  <c:y val="-9.6339113680154135E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8A69C4F6-0495-45AB-BC9E-D04AF748C04E}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{5F4CF824-CABA-40E6-ABC9-EC7FCE9C761C}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{731F8CE0-E729-42BF-9553-F542175BC281}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E94F6F19-35CE-4E97-8A49-A36C2A16C7C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2625,7 +2468,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{03839884-3CEC-46E9-B177-CE706B0FA1D0}" type="XVALUE">
+                    <a:fld id="{B1E889F8-6DD8-4A6A-84F3-0716DE293425}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2634,7 +2477,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{40E9DA11-5440-4544-A2C8-C7ED698D0E78}" type="YVALUE">
+                    <a:fld id="{EDF063EE-FB3A-4C00-84B8-D520D09DB654}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2657,27 +2500,150 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-9127-48A3-BC64-611D9913A2C0}"/>
+                  <c16:uniqueId val="{00000023-9127-48A3-BC64-611D9913A2C0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="41"/>
+              <c:idx val="36"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4222057927795425E-16"/>
+                  <c:y val="-9.6339113680154135E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00C7095E-FD6E-4A0D-9CE2-CE6FC3C00841}" type="XVALUE">
+                    <a:fld id="{2B2D1194-E342-4BBB-A0E8-E83D61FFA2AD}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{00512650-F162-4F02-8346-B1CE8B5CF995}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{7F258C8E-B409-422E-B39D-59F34E5D99FC}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4424242424242565E-2"/>
+                  <c:y val="1.2042389210019267E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9240F3BB-B7F2-4686-B508-39B7138AA696}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{25304295-A8FA-42B0-B66E-79266C126A34}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{F064F092-81D2-4ED2-A4AB-03F4DBBAFF8C}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C9768768-5085-4715-8F3E-364C932610FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{D5ECA7FB-D327-4D3B-9320-791272AD1817}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1011A824-8E24-4BCB-9129-A41BF630B01E}" type="YVALUE">
+                    <a:fld id="{8F1C02FD-1C1C-4340-99EE-07D0ECD6E9DC}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2700,6 +2666,74 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-9127-48A3-BC64-611D9913A2C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.6970986734753052E-4"/>
+                  <c:y val="3.5704555570904516E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A1FB026B-98F6-4C87-97E8-DBD58300BBE7}" type="XVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{DF137DEA-D08D-45D3-93EA-8D8C0382F473}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-5EB1-4DA5-A68E-8D5F65542DAF}"/>
                 </c:ext>
               </c:extLst>
@@ -2711,7 +2745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA4D54AA-4CE1-4AA9-A2D8-3E9504591A9D}" type="XVALUE">
+                    <a:fld id="{0AD118F9-1563-46A1-8B4E-928D9D34C432}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2720,7 +2754,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{96D313B5-2493-423B-B89A-97BF94D62751}" type="YVALUE">
+                    <a:fld id="{317E181B-7453-4CEB-B414-6BC8A0926863}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2754,7 +2788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7F14B85-DCF3-42CB-8D20-81296BD17FB7}" type="XVALUE">
+                    <a:fld id="{6FD603E1-83EA-4762-885B-E4A323E2FBFA}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2763,7 +2797,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{252F5504-D904-489E-A92F-F8BA50821F28}" type="YVALUE">
+                    <a:fld id="{CEAFBAF8-BE9B-4133-A5C1-8C2CEEF4DD5B}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2797,7 +2831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10944B6F-0F30-4BCB-B951-B265D454CB55}" type="XVALUE">
+                    <a:fld id="{B0A0772B-B05E-4198-B42C-1CFD903B85A3}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2806,7 +2840,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{05FBCF3A-135A-4C2C-989F-02B0A874E05F}" type="YVALUE">
+                    <a:fld id="{BB5DA113-4725-4051-8CA3-5616F1DEDA2D}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2840,7 +2874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7858B950-17E1-4848-BEB2-D6052F2CFD59}" type="XVALUE">
+                    <a:fld id="{21C0686E-B7DC-429F-8CCF-EEDA82606399}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2849,7 +2883,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E22DAA86-5643-4D1A-A726-D29742DF5E93}" type="YVALUE">
+                    <a:fld id="{121161AC-A95D-4B73-8E11-6F0DF0F24063}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2883,7 +2917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0F5F207-F59B-4F4B-9D6C-D6B74082B71C}" type="XVALUE">
+                    <a:fld id="{237FB6FE-823A-4A98-91C0-9AFFDF1C2F6D}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2892,7 +2926,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{78AF2366-F39F-4E66-BD4A-8BB0B4FE6C66}" type="YVALUE">
+                    <a:fld id="{48021AA2-39DF-4412-A67C-00ACEA58E2DD}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2926,7 +2960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C2E242C-8BD4-4D47-9450-F8D01C1D6EC7}" type="XVALUE">
+                    <a:fld id="{B6770C69-4254-4DC3-8F60-19E58635030A}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2935,7 +2969,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{90E981D4-2832-476B-B885-08A9C42DECE4}" type="YVALUE">
+                    <a:fld id="{B620C6BA-E32F-4ABD-A0A4-332A88605ECA}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -2969,7 +3003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57F44848-CBC4-4D95-8000-EA28DF51E12F}" type="XVALUE">
+                    <a:fld id="{5DAFEAAD-539F-4D21-B340-E638D629204E}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -2978,7 +3012,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{85FAD573-625B-4DC7-80BE-1EEF5921EBD3}" type="YVALUE">
+                    <a:fld id="{66E78B4A-2E85-422F-AE5F-68C7EB16A881}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3012,7 +3046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A608C69F-B8BD-4C0D-A017-3D0EACB438EA}" type="XVALUE">
+                    <a:fld id="{C0DC4D2E-AA2B-4697-91F5-350CE0602D24}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -3021,7 +3055,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{25CAA8F6-1017-41F6-9AC2-EF79A01F5617}" type="YVALUE">
+                    <a:fld id="{A5A99A0D-68BB-4BEB-AE6F-C31BE1A2C179}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3055,7 +3089,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05597711-E534-4FBF-B0E1-6B288F72A028}" type="XVALUE">
+                    <a:fld id="{F6FE09A0-1818-4915-AB88-CCC793017E24}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -3064,7 +3098,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3DFE6FD6-65BF-4CE8-AD98-1C78841AB535}" type="YVALUE">
+                    <a:fld id="{5878C142-CB04-42EE-8327-CFE39A094CB1}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3098,7 +3132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3D2A9D8-D70F-4DED-BEDF-E85B2659B773}" type="XVALUE">
+                    <a:fld id="{FDAB9040-5DE6-4FA7-9366-C9C386B9B492}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -3107,7 +3141,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2B55082D-6A43-4F58-8B43-35E61A2889FA}" type="YVALUE">
+                    <a:fld id="{FBBB0F23-763C-4D71-A609-906DF86AC031}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3141,7 +3175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A0A86FE-F37D-4754-8E30-E8631D992731}" type="XVALUE">
+                    <a:fld id="{F4ABA47A-8BBC-4E59-90D2-9BCABF60F634}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -3150,7 +3184,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{399CFDE3-2573-4CB7-85DF-9A7736531CD6}" type="YVALUE">
+                    <a:fld id="{8169027B-8538-48CE-9430-BF8B119AAA02}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3184,7 +3218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06375356-1FF4-46F3-B351-421E23D8AB80}" type="XVALUE">
+                    <a:fld id="{0FE3AA3D-B95B-41E6-BD97-F7CFD1BE9479}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -3193,7 +3227,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A900CDFA-1CD0-4028-B43C-11B8726A264B}" type="YVALUE">
+                    <a:fld id="{C3137E5E-ADAF-4F69-9AC9-0FA42CC41495}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3227,7 +3261,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{161465C1-7247-4656-8CE0-F4D79F52CA30}" type="XVALUE">
+                    <a:fld id="{7FC752F7-EE94-4F24-BB6D-1FD39DEEE7D3}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -3236,7 +3270,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{022CC7B3-503F-47C0-BF1C-7E7F4D7A04F1}" type="YVALUE">
+                    <a:fld id="{E022F15B-7B69-448F-90DE-41300B277943}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3270,7 +3304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{882BFAAA-0074-4130-B425-2644DC9E4B23}" type="XVALUE">
+                    <a:fld id="{597A6541-F6B6-472D-AE37-B83CE8F4B5C8}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -3279,7 +3313,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6389ED30-D13F-4194-B887-79E7EB5133BE}" type="YVALUE">
+                    <a:fld id="{7A253C02-6D1D-4B7A-A22D-19668B577D29}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3313,7 +3347,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1738ADA6-9EC8-4C86-AD42-3C5CC25746B4}" type="XVALUE">
+                    <a:fld id="{66FB63E1-BCF8-4A11-B9E7-71A37D98F29D}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -3322,7 +3356,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{268EE319-3481-490B-B2B1-4485623407DD}" type="YVALUE">
+                    <a:fld id="{02134A93-2DAA-45A9-B23A-CA5AFD134AB8}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3417,34 +3451,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2013</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2013</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2014</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2016</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2016</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2016</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2014</c:v>
@@ -3453,37 +3487,37 @@
                   <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2018</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2017</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2010</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2014</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2019</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2014</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2013</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2016</c:v>
@@ -3492,40 +3526,40 @@
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>2018</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>2018</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2019</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2018</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2018</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2019</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2019</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2016</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2018</c:v>
@@ -3534,16 +3568,16 @@
                   <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2014</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2014</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2019</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2019</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2019</c:v>
@@ -3561,25 +3595,25 @@
                   <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2016</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2017</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2017</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2017</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2016</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>2019</c:v>
@@ -3597,169 +3631,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
+                  <c:v>3431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4878</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>12464</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>15356</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9771</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1179</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>923</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1344</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>931</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4878</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="27">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3825</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3431</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7954</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>618</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="35">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5239</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>791</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1473</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1894</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3825</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6408</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4499</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>232</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="54">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>23</c:v>
@@ -3778,49 +3812,49 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="41"/>
                   <c:pt idx="0">
+                    <c:v>RNN-LM</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SENNA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>Word2Vec</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>Word2Vec-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
+                    <c:v>CNN-RNN</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>Glove</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="6">
+                    <c:v>VADER</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Seq2Seq</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>RNN Encoder-Decode</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Doc2Vec</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>TSLDA</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
                     <c:v>FastText</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Linear Superposition</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="14">
                     <c:v>CNN-RNN</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>-</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>-</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>BRNN-CNN-CRF</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>-</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>VADER</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>TSLDA</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>SENNA</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Flair</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>LSTM-CNN</c:v>
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>-</c:v>
@@ -3829,76 +3863,76 @@
                     <c:v>-</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>RNN-LM</c:v>
+                    <c:v>BRNN-CNN-CRF</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Seq2Seq</c:v>
+                    <c:v>LSTM-CNN</c:v>
                   </c:pt>
                   <c:pt idx="19">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
                     <c:v>BiDAF</c:v>
                   </c:pt>
-                  <c:pt idx="20">
-                    <c:v>XL-Net</c:v>
-                  </c:pt>
                   <c:pt idx="21">
-                    <c:v>CNN</c:v>
+                    <c:v>QRNN</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>CNN-RNN</c:v>
+                    <c:v>VDCNN</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>QRNN</c:v>
+                    <c:v>DRL</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>VDCNN</c:v>
+                    <c:v>words-lvt5k-1sent</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
                     <c:v>TagLM (Pre-ELMo)</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="28">
+                    <c:v>Attention</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>DRGD</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>ML+RL</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>SummaRuNNer</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Linear Superposition</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Flair</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
                     <c:v>ELMo</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="36">
                     <c:v>ULMFit</c:v>
                   </c:pt>
-                  <c:pt idx="28">
-                    <c:v>MultiFit</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="37">
                     <c:v>GPT</c:v>
                   </c:pt>
-                  <c:pt idx="30">
+                  <c:pt idx="38">
                     <c:v>BERT</c:v>
                   </c:pt>
-                  <c:pt idx="31">
-                    <c:v>GPT-2</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Attention</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>LASER (FB Library)</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
+                  <c:pt idx="39">
                     <c:v>-</c:v>
                   </c:pt>
-                  <c:pt idx="35">
-                    <c:v>DRL</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
+                  <c:pt idx="40">
                     <c:v>-</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>-</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>MQAN</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>RNN Encoder-Decode</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Doc2Vec</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -5004,10 +5038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5046,19 +5080,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F2" s="3">
-        <v>12464</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5066,19 +5100,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F3" s="3">
-        <v>15356</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5086,19 +5120,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F4" s="3">
-        <v>9771</v>
+        <v>12464</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5106,19 +5140,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F5" s="3">
-        <v>1179</v>
+        <v>15356</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5126,19 +5160,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F6" s="3">
-        <v>61</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5146,19 +5180,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F7" s="3">
-        <v>923</v>
+        <v>9771</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,19 +5200,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E8" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F8" s="3">
-        <v>94</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5186,19 +5220,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F9" s="3">
-        <v>238</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5206,19 +5240,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F10" s="3">
-        <v>831</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5226,19 +5260,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F11" s="3">
-        <v>1344</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5246,19 +5280,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>2014</v>
       </c>
       <c r="F12" s="3">
-        <v>931</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,19 +5300,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3">
         <v>2015</v>
       </c>
       <c r="F13" s="3">
-        <v>88</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5286,19 +5320,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="F14" s="3">
-        <v>4878</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5306,19 +5340,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F15" s="3">
-        <v>127</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5326,19 +5360,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E16" s="3">
         <v>2016</v>
       </c>
       <c r="F16" s="3">
-        <v>586</v>
+        <v>923</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -5346,19 +5380,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="E17" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F17" s="3">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5366,19 +5400,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E18" s="3">
         <v>2016</v>
       </c>
       <c r="F18" s="3">
-        <v>387</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5386,19 +5420,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="E19" s="3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="F19" s="3">
-        <v>3431</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5406,19 +5440,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E20" s="3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F20" s="3">
-        <v>7954</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5426,19 +5460,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3">
         <v>2016</v>
       </c>
       <c r="F21" s="3">
-        <v>618</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5446,19 +5480,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="F22" s="3">
-        <v>99</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,19 +5500,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E23" s="3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F23" s="3">
-        <v>5239</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5486,19 +5520,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F24" s="3">
-        <v>791</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -5506,19 +5540,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E25" s="3">
         <v>2016</v>
       </c>
       <c r="F25" s="3">
-        <v>167</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5526,19 +5560,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>117</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="E26" s="3">
         <v>2016</v>
       </c>
       <c r="F26" s="3">
-        <v>314</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5546,19 +5580,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>123</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F27" s="3">
-        <v>166</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5566,19 +5600,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E28" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F28" s="3">
-        <v>1473</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5586,39 +5620,39 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E29" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F29" s="3">
-        <v>393</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>74</v>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E30" s="3">
-        <v>2019</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>29</v>
+        <v>2017</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3825</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5626,19 +5660,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E31" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F31" s="3">
-        <v>367</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5646,19 +5680,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>118</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F32" s="3">
-        <v>1894</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5666,19 +5700,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>121</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F33" s="3">
-        <v>146</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5686,19 +5720,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>122</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E34" s="3">
         <v>2017</v>
       </c>
       <c r="F34" s="3">
-        <v>3825</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5706,19 +5740,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5726,19 +5760,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E36" s="3">
         <v>2018</v>
       </c>
       <c r="F36" s="3">
-        <v>59</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5746,19 +5780,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E37" s="3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F37" s="3">
-        <v>462</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5766,19 +5800,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E38" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F38" s="3">
-        <v>151</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5786,19 +5820,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E39" s="3">
         <v>2018</v>
       </c>
       <c r="F39" s="3">
-        <v>48</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5806,19 +5840,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="3">
         <v>2018</v>
       </c>
       <c r="F40" s="3">
-        <v>57</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5826,19 +5860,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E41" s="3">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F41" s="3">
-        <v>6408</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5846,19 +5880,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E42" s="3">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F42" s="3">
-        <v>4499</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5866,19 +5900,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F43" s="3">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5886,19 +5920,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="E44" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F44" s="3">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5906,33 +5940,33 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>113</v>
+        <v>40</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="E45" s="3">
         <v>2019</v>
       </c>
       <c r="F45" s="3">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>114</v>
+      <c r="B46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="E46" s="3">
         <v>2019</v>
@@ -5946,19 +5980,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="E47" s="3">
         <v>2019</v>
       </c>
       <c r="F47" s="3">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5966,19 +6000,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3">
         <v>2019</v>
       </c>
       <c r="F48" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5986,19 +6020,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="E49" s="3">
         <v>2019</v>
       </c>
       <c r="F49" s="3">
-        <v>232</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -6006,19 +6040,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E50" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F50" s="3">
-        <v>647</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6026,19 +6060,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="E51" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F51" s="3">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6046,19 +6080,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2018</v>
-      </c>
-      <c r="F52" s="3">
-        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,19 +6100,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="E53" s="3">
         <v>2019</v>
       </c>
       <c r="F53" s="3">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -6086,19 +6120,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="E54" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F54" s="3">
-        <v>422</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6106,19 +6140,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E55" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F55" s="3">
-        <v>295</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6126,7 +6160,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>29</v>
@@ -6135,10 +6169,10 @@
         <v>79</v>
       </c>
       <c r="E56" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F56" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -6182,7 +6216,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -6199,6 +6233,146 @@
       </c>
       <c r="F59" s="3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F60" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F61" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
